--- a/실무_엑셀_예제_파일/Chapter07/07-012.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB0F9A-2515-4F69-AAA7-66931623BC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FFE784-AEBD-40D7-B968-9B485582286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22680" windowHeight="14592" xr2:uid="{272F9599-5CF1-42F4-B8DD-1FE7524495E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{272F9599-5CF1-42F4-B8DD-1FE7524495E9}"/>
   </bookViews>
   <sheets>
     <sheet name="ST반도체" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ST반도체!$B$6:$D$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -620,20 +611,20 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.296875" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
@@ -642,8 +633,8 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="2:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="7.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
@@ -651,8 +642,8 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="7.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -669,7 +660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -679,10 +670,16 @@
       <c r="D7" s="6">
         <v>42242</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E7" s="7">
+        <f>DATEDIF(D7, $F$4, "m")</f>
+        <v>71</v>
+      </c>
+      <c r="F7" s="9">
+        <f>YEARFRAC(D7, $F$4)*12</f>
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -692,10 +689,16 @@
       <c r="D8" s="6">
         <v>43486</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E8" s="7">
+        <f t="shared" ref="E8:E18" si="0">DATEDIF(D8, $F$4, "m")</f>
+        <v>30</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8:F18" si="1">YEARFRAC(D8, $F$4)*12</f>
+        <v>30.966666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -705,10 +708,16 @@
       <c r="D9" s="6">
         <v>42574</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>60.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -718,10 +727,16 @@
       <c r="D10" s="6">
         <v>42693</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>57.033333333333339</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -731,10 +746,16 @@
       <c r="D11" s="6">
         <v>43319</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>36.43333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -744,10 +765,16 @@
       <c r="D12" s="6">
         <v>43075</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>44.466666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,10 +784,16 @@
       <c r="D13" s="6">
         <v>43190</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>40.666666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
@@ -770,10 +803,16 @@
       <c r="D14" s="6">
         <v>43915</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>16.833333333333332</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -783,10 +822,16 @@
       <c r="D15" s="6">
         <v>44131</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>9.7666666666666657</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -796,10 +841,16 @@
       <c r="D16" s="6">
         <v>42246</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>71.666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -809,10 +860,16 @@
       <c r="D17" s="6">
         <v>43346</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="1"/>
+        <v>35.56666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
@@ -822,8 +879,14 @@
       <c r="D18" s="6">
         <v>42974</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="1"/>
+        <v>47.766666666666666</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
